--- a/src/test/java/dataEngine/Assets Functional Test 5.xlsx
+++ b/src/test/java/dataEngine/Assets Functional Test 5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>TS_795</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -817,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,13 +895,13 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>9</v>
@@ -885,112 +913,112 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="10">
         <v>1000000</v>
@@ -998,59 +1026,59 @@
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="10">
         <v>1000000</v>
@@ -1058,119 +1086,119 @@
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -1178,402 +1206,402 @@
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="10">
         <v>1000000</v>
@@ -1581,222 +1609,222 @@
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="G43" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="13">
         <v>1</v>
@@ -1804,99 +1832,99 @@
     </row>
     <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" s="10" t="b">
         <v>0</v>
@@ -1904,279 +1932,279 @@
     </row>
     <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H66" s="10" t="b">
         <v>0</v>
@@ -2184,59 +2212,59 @@
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" s="8">
         <v>1</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H69" s="8">
         <v>1</v>
